--- a/data/strategies/华安场外策略结果.xlsx
+++ b/data/strategies/华安场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <t>华夏中证5G通信主题ETF联接A</t>
   </si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>8.20%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.22%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>9.27%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>25.61%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>28.01%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>23.28%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.68%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -143,58 +140,58 @@
     <t>162412.OF</t>
   </si>
   <si>
-    <t>8.57%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>21.00%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>26.64%</t>
-  </si>
-  <si>
-    <t>-0.51%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>15.29%</t>
-  </si>
-  <si>
-    <t>20.86%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>20.41%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>25.77%</t>
-  </si>
-  <si>
-    <t>24.87%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>32.10%</t>
+    <t>6.38%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-3.09%</t>
+  </si>
+  <si>
+    <t>14.68%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>11.88%</t>
+  </si>
+  <si>
+    <t>-0.19%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>8.42%</t>
+  </si>
+  <si>
+    <t>26.04%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>36.17%</t>
+  </si>
+  <si>
+    <t>22.06%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>25.06%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
+  </si>
+  <si>
+    <t>33.14%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,7 +206,13 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -218,48 +221,42 @@
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>002475.SZ</t>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
   </si>
   <si>
     <t>002241.SZ</t>
   </si>
   <si>
-    <t>000063.SZ</t>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>300347.SZ</t>
   </si>
   <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
     <t>600703.SH</t>
   </si>
   <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
+  </si>
+  <si>
+    <t>002340.SZ</t>
+  </si>
+  <si>
     <t>600763.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
     <t>300750.SZ</t>
   </si>
   <si>
@@ -272,304 +269,316 @@
     <t>002594.SZ</t>
   </si>
   <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>2.83%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
+    <t>361.56%</t>
+  </si>
+  <si>
+    <t>343.96%</t>
+  </si>
+  <si>
+    <t>338.65%</t>
+  </si>
+  <si>
+    <t>314.09%</t>
+  </si>
+  <si>
+    <t>262.62%</t>
+  </si>
+  <si>
+    <t>214.61%</t>
+  </si>
+  <si>
+    <t>213.89%</t>
+  </si>
+  <si>
+    <t>208.90%</t>
+  </si>
+  <si>
+    <t>181.80%</t>
+  </si>
+  <si>
+    <t>180.23%</t>
+  </si>
+  <si>
+    <t>177.44%</t>
+  </si>
+  <si>
+    <t>169.82%</t>
+  </si>
+  <si>
+    <t>168.13%</t>
+  </si>
+  <si>
+    <t>166.91%</t>
+  </si>
+  <si>
+    <t>166.88%</t>
+  </si>
+  <si>
+    <t>165.40%</t>
+  </si>
+  <si>
+    <t>165.26%</t>
+  </si>
+  <si>
+    <t>160.51%</t>
+  </si>
+  <si>
+    <t>159.82%</t>
+  </si>
+  <si>
+    <t>158.53%</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>三元材料</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>9.22%</t>
+  </si>
+  <si>
+    <t>6.31%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
+    <t>5.59%</t>
+  </si>
+  <si>
+    <t>5.17%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>1.98%</t>
   </si>
   <si>
     <t>1.84%</t>
   </si>
   <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>1.70%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.65%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>19.34%</t>
-  </si>
-  <si>
-    <t>17.02%</t>
-  </si>
-  <si>
-    <t>14.00%</t>
-  </si>
-  <si>
-    <t>11.40%</t>
-  </si>
-  <si>
-    <t>8.91%</t>
-  </si>
-  <si>
-    <t>8.52%</t>
-  </si>
-  <si>
-    <t>5.76%</t>
-  </si>
-  <si>
-    <t>3.87%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
-  </si>
-  <si>
-    <t>3.68%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
+    <t>1.74%</t>
   </si>
 </sst>
 </file>
@@ -933,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,13 +1002,13 @@
         <v>1.01255620598965</v>
       </c>
       <c r="C3">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="D3">
-        <v>0.9958954089388872</v>
+        <v>0.9959402985074626</v>
       </c>
       <c r="E3">
-        <v>1.025308562941073</v>
+        <v>1.025307476170821</v>
       </c>
       <c r="F3">
         <v>1.018168368380631</v>
@@ -1016,13 +1025,13 @@
         <v>1.048697717824722</v>
       </c>
       <c r="C4">
-        <v>1.074458058435438</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="D4">
-        <v>1.013681970203709</v>
+        <v>1.013731343283582</v>
       </c>
       <c r="E4">
-        <v>1.045643433511324</v>
+        <v>1.045649363536112</v>
       </c>
       <c r="F4">
         <v>1.027111201157197</v>
@@ -1039,13 +1048,13 @@
         <v>1.029524051921608</v>
       </c>
       <c r="C5">
-        <v>1.05937794533459</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="D5">
-        <v>1.033064761325631</v>
+        <v>1.033074626865672</v>
       </c>
       <c r="E5">
-        <v>1.04054427085122</v>
+        <v>1.040536163609085</v>
       </c>
       <c r="F5">
         <v>1.025290909062353</v>
@@ -1062,13 +1071,13 @@
         <v>1.026809196572495</v>
       </c>
       <c r="C6">
-        <v>1.086710650329878</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="D6">
-        <v>1.041730009121314</v>
+        <v>1.041791044776119</v>
       </c>
       <c r="E6">
-        <v>1.051500544453541</v>
+        <v>1.051506035615219</v>
       </c>
       <c r="F6">
         <v>1.026858339183711</v>
@@ -1085,13 +1094,13 @@
         <v>1.043013489437516</v>
       </c>
       <c r="C7">
-        <v>1.077285579641847</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="D7">
-        <v>1.042566129522651</v>
+        <v>1.042626865671642</v>
       </c>
       <c r="E7">
-        <v>1.05417565043304</v>
+        <v>1.054190617562254</v>
       </c>
       <c r="F7">
         <v>1.029917812005761</v>
@@ -1108,13 +1117,13 @@
         <v>1.058878425383897</v>
       </c>
       <c r="C8">
-        <v>1.04052780395853</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="D8">
-        <v>1.045226512617817</v>
+        <v>1.045253731343283</v>
       </c>
       <c r="E8">
-        <v>1.048317589100719</v>
+        <v>1.048313958686302</v>
       </c>
       <c r="F8">
         <v>1.013866573688848</v>
@@ -1131,13 +1140,13 @@
         <v>1.069992364469331</v>
       </c>
       <c r="C9">
-        <v>1.063147973609802</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="D9">
-        <v>1.055944055944056</v>
+        <v>1.056</v>
       </c>
       <c r="E9">
-        <v>1.063097773672345</v>
+        <v>1.063105122285153</v>
       </c>
       <c r="F9">
         <v>1.027660901099557</v>
@@ -1154,13 +1163,13 @@
         <v>1.085942139645372</v>
       </c>
       <c r="C10">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D10">
-        <v>1.039449680754029</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="E10">
-        <v>1.052813651440226</v>
+        <v>1.05282956971481</v>
       </c>
       <c r="F10">
         <v>1.020386015005238</v>
@@ -1177,13 +1186,13 @@
         <v>1.083312123525918</v>
       </c>
       <c r="C11">
-        <v>1.005655042412818</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="D11">
-        <v>1.040969899665552</v>
+        <v>1.041074626865672</v>
       </c>
       <c r="E11">
-        <v>1.043712352884674</v>
+        <v>1.043737088111563</v>
       </c>
       <c r="F11">
         <v>1.011430617658561</v>
@@ -1200,13 +1209,13 @@
         <v>1.059557139221176</v>
       </c>
       <c r="C12">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="D12">
-        <v>1.038461538461539</v>
+        <v>1.038567164179105</v>
       </c>
       <c r="E12">
-        <v>1.042272555008657</v>
+        <v>1.042299086414471</v>
       </c>
       <c r="F12">
         <v>1.007914108598721</v>
@@ -1223,13 +1232,13 @@
         <v>1.095868329515568</v>
       </c>
       <c r="C13">
-        <v>1.034872761545712</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="D13">
-        <v>1.050091213134691</v>
+        <v>1.050149253731343</v>
       </c>
       <c r="E13">
-        <v>1.060633343679826</v>
+        <v>1.06064970923205</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1246,13 +1255,13 @@
         <v>1.074997879019258</v>
       </c>
       <c r="C14">
-        <v>1.008482563619227</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="D14">
-        <v>1.029112192155671</v>
+        <v>1.029134328358209</v>
       </c>
       <c r="E14">
-        <v>1.037905548272264</v>
+        <v>1.037908315761568</v>
       </c>
       <c r="F14">
         <v>1.017160061629216</v>
@@ -1269,13 +1278,13 @@
         <v>1.076355306693815</v>
       </c>
       <c r="C15">
-        <v>1.051837888784166</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="D15">
-        <v>1.072286409242931</v>
+        <v>1.072358208955224</v>
       </c>
       <c r="E15">
-        <v>1.066921822624839</v>
+        <v>1.066933653770158</v>
       </c>
       <c r="F15">
         <v>1.026434284942462</v>
@@ -1292,13 +1301,13 @@
         <v>1.076185628234495</v>
       </c>
       <c r="C16">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="D16">
-        <v>1.105959258133171</v>
+        <v>1.106029850746269</v>
       </c>
       <c r="E16">
-        <v>1.085129800734665</v>
+        <v>1.085147770552339</v>
       </c>
       <c r="F16">
         <v>1.04011081950838</v>
@@ -1315,13 +1324,13 @@
         <v>1.054297106982268</v>
       </c>
       <c r="C17">
-        <v>1.100848256361923</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="D17">
-        <v>1.168060200668896</v>
+        <v>1.168119402985075</v>
       </c>
       <c r="E17">
-        <v>1.107200807194141</v>
+        <v>1.107211730479773</v>
       </c>
       <c r="F17">
         <v>1.042515364113389</v>
@@ -1338,13 +1347,13 @@
         <v>1.035377958768134</v>
       </c>
       <c r="C18">
-        <v>1.098020735155514</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="D18">
-        <v>1.180525995743387</v>
+        <v>1.180537313432836</v>
       </c>
       <c r="E18">
-        <v>1.103948927177803</v>
+        <v>1.103938761244996</v>
       </c>
       <c r="F18">
         <v>1.043693292561303</v>
@@ -1361,13 +1370,13 @@
         <v>1.011622974463392</v>
       </c>
       <c r="C19">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="D19">
-        <v>1.135147461234418</v>
+        <v>1.135164179104478</v>
       </c>
       <c r="E19">
-        <v>1.070944441479671</v>
+        <v>1.070934058048909</v>
       </c>
       <c r="F19">
         <v>1.026047924411546</v>
@@ -1384,13 +1393,13 @@
         <v>1.014846865190464</v>
       </c>
       <c r="C20">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="D20">
-        <v>1.12975068409851</v>
+        <v>1.129791044776119</v>
       </c>
       <c r="E20">
-        <v>1.072125791868256</v>
+        <v>1.072133785147219</v>
       </c>
       <c r="F20">
         <v>1.02984870687015</v>
@@ -1407,13 +1416,13 @@
         <v>0.9752269449393398</v>
       </c>
       <c r="C21">
-        <v>1.033930254476909</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="D21">
-        <v>1.088020674977197</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="E21">
-        <v>1.031820967999231</v>
+        <v>1.031835398411697</v>
       </c>
       <c r="F21">
         <v>1.007424090364388</v>
@@ -1430,13 +1439,13 @@
         <v>0.9694578773224739</v>
       </c>
       <c r="C22">
-        <v>1.015080113100848</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="D22">
-        <v>1.083764062024932</v>
+        <v>1.083820895522388</v>
       </c>
       <c r="E22">
-        <v>1.022234256081149</v>
+        <v>1.022233611581702</v>
       </c>
       <c r="F22">
         <v>0.9967065120596316</v>
@@ -1453,13 +1462,13 @@
         <v>0.9729362857385254</v>
       </c>
       <c r="C23">
-        <v>1.016022620169651</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="D23">
-        <v>1.108619641228337</v>
+        <v>1.10865671641791</v>
       </c>
       <c r="E23">
-        <v>1.031930283412435</v>
+        <v>1.03193848065685</v>
       </c>
       <c r="F23">
         <v>1.004110184997589</v>
@@ -1476,13 +1485,13 @@
         <v>0.9825231186900821</v>
       </c>
       <c r="C24">
-        <v>1.057492931196984</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="D24">
-        <v>1.117588932806324</v>
+        <v>1.117611940298507</v>
       </c>
       <c r="E24">
-        <v>1.05183487547572</v>
+        <v>1.051841179771637</v>
       </c>
       <c r="F24">
         <v>1.013770768841751</v>
@@ -1499,13 +1508,13 @@
         <v>0.956986510562484</v>
       </c>
       <c r="C25">
-        <v>1.054665409990575</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="D25">
-        <v>1.120933414411675</v>
+        <v>1.120955223880597</v>
       </c>
       <c r="E25">
-        <v>1.043323025643987</v>
+        <v>1.043323647300611</v>
       </c>
       <c r="F25">
         <v>1.00506038061224</v>
@@ -1522,13 +1531,13 @@
         <v>0.945448375328752</v>
       </c>
       <c r="C26">
-        <v>1.0311027332705</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="D26">
-        <v>1.105047126786257</v>
+        <v>1.105074626865672</v>
       </c>
       <c r="E26">
-        <v>1.026381901430505</v>
+        <v>1.026387938667347</v>
       </c>
       <c r="F26">
         <v>0.9939815709167896</v>
@@ -1545,13 +1554,13 @@
         <v>0.9279714940188344</v>
       </c>
       <c r="C27">
-        <v>1.002827521206409</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="D27">
-        <v>1.126862268166616</v>
+        <v>1.126925373134328</v>
       </c>
       <c r="E27">
-        <v>1.018307938459502</v>
+        <v>1.018313651058079</v>
       </c>
       <c r="F27">
         <v>0.9800160512383169</v>
@@ -1568,13 +1577,13 @@
         <v>0.9302621532196488</v>
       </c>
       <c r="C28">
-        <v>1.019792648444863</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="D28">
-        <v>1.139480085132259</v>
+        <v>1.139582089552239</v>
       </c>
       <c r="E28">
-        <v>1.028849134175131</v>
+        <v>1.028879008010275</v>
       </c>
       <c r="F28">
         <v>0.9930973392952219</v>
@@ -1591,13 +1600,13 @@
         <v>0.9490964622041231</v>
       </c>
       <c r="C29">
-        <v>1.04995287464656</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="D29">
-        <v>1.161067193675889</v>
+        <v>1.161074626865672</v>
       </c>
       <c r="E29">
-        <v>1.05232941969581</v>
+        <v>1.052330084582546</v>
       </c>
       <c r="F29">
         <v>1.014256075362292</v>
@@ -1614,13 +1623,13 @@
         <v>0.9685246457962161</v>
       </c>
       <c r="C30">
-        <v>1.062205466540999</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="D30">
-        <v>1.189647309212527</v>
+        <v>1.189731343283582</v>
       </c>
       <c r="E30">
-        <v>1.072409795569377</v>
+        <v>1.072431451234094</v>
       </c>
       <c r="F30">
         <v>1.024824449396979</v>
@@ -1637,13 +1646,13 @@
         <v>0.971494018834309</v>
       </c>
       <c r="C31">
-        <v>1.039585296889727</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="D31">
-        <v>1.137503800547279</v>
+        <v>1.13755223880597</v>
       </c>
       <c r="E31">
-        <v>1.048747368557877</v>
+        <v>1.048755777936346</v>
       </c>
       <c r="F31">
         <v>1.038860644782327</v>
@@ -1660,13 +1669,13 @@
         <v>0.9800627810299481</v>
       </c>
       <c r="C32">
-        <v>1.024505183788878</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="D32">
-        <v>1.150197628458498</v>
+        <v>1.150208955223881</v>
       </c>
       <c r="E32">
-        <v>1.050873273591817</v>
+        <v>1.050868436398715</v>
       </c>
       <c r="F32">
         <v>1.052829305603327</v>
@@ -1683,13 +1692,13 @@
         <v>0.959107491303979</v>
       </c>
       <c r="C33">
-        <v>1.007540056550424</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="D33">
-        <v>1.10063849194284</v>
+        <v>1.10065671641791</v>
       </c>
       <c r="E33">
-        <v>1.02179546804613</v>
+        <v>1.021781582679907</v>
       </c>
       <c r="F33">
         <v>1.045538713796369</v>
@@ -1706,13 +1715,13 @@
         <v>0.9561381182658861</v>
       </c>
       <c r="C34">
-        <v>0.9896324222431668</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="D34">
-        <v>1.08498023715415</v>
+        <v>1.085014925373134</v>
       </c>
       <c r="E34">
-        <v>1.009709137811516</v>
+        <v>1.009714797742774</v>
       </c>
       <c r="F34">
         <v>1.041481928221752</v>
@@ -1729,13 +1738,13 @@
         <v>0.9575803851701026</v>
       </c>
       <c r="C35">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D35">
-        <v>1.045530556400122</v>
+        <v>1.045611940298508</v>
       </c>
       <c r="E35">
-        <v>0.9856731026000352</v>
+        <v>0.985696959950167</v>
       </c>
       <c r="F35">
         <v>1.026555218929781</v>
@@ -1752,13 +1761,13 @@
         <v>0.9523203529311953</v>
       </c>
       <c r="C36">
-        <v>0.9377945334590009</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="D36">
-        <v>1.042338096685923</v>
+        <v>1.042388059701493</v>
       </c>
       <c r="E36">
-        <v>0.9772326879444313</v>
+        <v>0.9772348519859151</v>
       </c>
       <c r="F36">
         <v>1.020737822968348</v>
@@ -1775,13 +1784,13 @@
         <v>0.9447696614914736</v>
       </c>
       <c r="C37">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="D37">
-        <v>1.014974156278504</v>
+        <v>1.015044776119403</v>
       </c>
       <c r="E37">
-        <v>0.9591037785336728</v>
+        <v>0.9591165469509647</v>
       </c>
       <c r="F37">
         <v>0.9995665223311676</v>
@@ -1798,13 +1807,13 @@
         <v>0.9674217358106388</v>
       </c>
       <c r="C38">
-        <v>0.9538171536286523</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="D38">
-        <v>1.02873213742779</v>
+        <v>1.028776119402985</v>
       </c>
       <c r="E38">
-        <v>0.983164656224243</v>
+        <v>0.9831608089542592</v>
       </c>
       <c r="F38">
         <v>1.019055741144727</v>
@@ -1821,13 +1830,13 @@
         <v>0.972257571901247</v>
       </c>
       <c r="C39">
-        <v>0.9575871819038644</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="D39">
-        <v>1.009653390088173</v>
+        <v>1.009671641791045</v>
       </c>
       <c r="E39">
-        <v>0.9797569632037962</v>
+        <v>0.9797448748886401</v>
       </c>
       <c r="F39">
         <v>1.010400322909452</v>
@@ -1844,13 +1853,13 @@
         <v>0.9766692118435564</v>
       </c>
       <c r="C40">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="D40">
-        <v>1.026603830951657</v>
+        <v>1.026626865671642</v>
       </c>
       <c r="E40">
-        <v>0.9893387849307711</v>
+        <v>0.9893287749006516</v>
       </c>
       <c r="F40">
         <v>1.024758485403896</v>
@@ -1867,13 +1876,13 @@
         <v>0.9419699669127004</v>
       </c>
       <c r="C41">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="D41">
-        <v>0.9798570994223167</v>
+        <v>0.9799402985074627</v>
       </c>
       <c r="E41">
-        <v>0.9465632536143482</v>
+        <v>0.9465801731822416</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1890,13 +1899,13 @@
         <v>0.9534232629167726</v>
       </c>
       <c r="C42">
-        <v>0.9245994344957587</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="D42">
-        <v>0.9825934934630586</v>
+        <v>0.982686567164179</v>
       </c>
       <c r="E42">
-        <v>0.9535375756181125</v>
+        <v>0.9535632910455893</v>
       </c>
       <c r="F42">
         <v>1.005715308829281</v>
@@ -1913,13 +1922,13 @@
         <v>0.927632137100195</v>
       </c>
       <c r="C43">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="D43">
-        <v>0.9266494375190027</v>
+        <v>0.9266865671641791</v>
       </c>
       <c r="E43">
-        <v>0.911999797074508</v>
+        <v>0.9119939769333422</v>
       </c>
       <c r="F43">
         <v>0.9826137761087841</v>
@@ -1936,13 +1945,13 @@
         <v>0.8960719436667515</v>
       </c>
       <c r="C44">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D44">
-        <v>0.8996655518394648</v>
+        <v>0.8997014925373134</v>
       </c>
       <c r="E44">
-        <v>0.8876992390423146</v>
+        <v>0.8877073887552149</v>
       </c>
       <c r="F44">
         <v>0.9593049279814547</v>
@@ -1959,13 +1968,13 @@
         <v>0.8880970560787307</v>
       </c>
       <c r="C45">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="D45">
-        <v>0.9204925509273336</v>
+        <v>0.9204776119402985</v>
       </c>
       <c r="E45">
-        <v>0.8968371242846642</v>
+        <v>0.8968294834803316</v>
       </c>
       <c r="F45">
         <v>0.952121135020441</v>
@@ -1982,13 +1991,13 @@
         <v>0.8970900144226689</v>
       </c>
       <c r="C46">
-        <v>0.9066918001885014</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="D46">
-        <v>0.9444359987838248</v>
+        <v>0.9444776119402986</v>
       </c>
       <c r="E46">
-        <v>0.9158827785645751</v>
+        <v>0.9158852249419228</v>
       </c>
       <c r="F46">
         <v>0.9759262836671583</v>
@@ -2005,13 +2014,13 @@
         <v>0.8822431492322049</v>
       </c>
       <c r="C47">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="D47">
-        <v>0.9461082395865004</v>
+        <v>0.9461492537313433</v>
       </c>
       <c r="E47">
-        <v>0.9135638751936352</v>
+        <v>0.9135716611334568</v>
       </c>
       <c r="F47">
         <v>0.9772691220977807</v>
@@ -2028,13 +2037,13 @@
         <v>0.8474590650716891</v>
       </c>
       <c r="C48">
-        <v>0.889726672950047</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="D48">
-        <v>0.9020979020979021</v>
+        <v>0.9020895522388059</v>
       </c>
       <c r="E48">
-        <v>0.8794381918901976</v>
+        <v>0.879433225387474</v>
       </c>
       <c r="F48">
         <v>0.9696502808966706</v>
@@ -2051,13 +2060,13 @@
         <v>0.8455077627895139</v>
       </c>
       <c r="C49">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="D49">
-        <v>0.907190635451505</v>
+        <v>0.907223880597015</v>
       </c>
       <c r="E49">
-        <v>0.880766378453652</v>
+        <v>0.8807701009555258</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2074,13 +2083,13 @@
         <v>0.8577246118605242</v>
       </c>
       <c r="C50">
-        <v>0.9123468426013195</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="D50">
-        <v>0.9147917300091213</v>
+        <v>0.914865671641791</v>
       </c>
       <c r="E50">
-        <v>0.8945820969940237</v>
+        <v>0.8946057863517508</v>
       </c>
       <c r="F50">
         <v>0.9777371523344186</v>
@@ -2097,13 +2106,13 @@
         <v>0.8532281326885551</v>
       </c>
       <c r="C51">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="D51">
-        <v>0.9296138643964732</v>
+        <v>0.9296716417910447</v>
       </c>
       <c r="E51">
-        <v>0.8982556257560854</v>
+        <v>0.8982689435683173</v>
       </c>
       <c r="F51">
         <v>0.9853544229642648</v>
@@ -2120,13 +2129,13 @@
         <v>0.8342241452447611</v>
       </c>
       <c r="C52">
-        <v>0.8850141376060321</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="D52">
-        <v>0.9109151717847369</v>
+        <v>0.9109253731343283</v>
       </c>
       <c r="E52">
-        <v>0.8762928814821725</v>
+        <v>0.8762784249481586</v>
       </c>
       <c r="F52">
         <v>0.9747907606433689</v>
@@ -2143,13 +2152,13 @@
         <v>0.8447442097225757</v>
       </c>
       <c r="C53">
-        <v>0.8963242224316682</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="D53">
-        <v>0.9124353906962602</v>
+        <v>0.9124776119402984</v>
       </c>
       <c r="E53">
-        <v>0.8841037036378923</v>
+        <v>0.8841005635031295</v>
       </c>
       <c r="F53">
         <v>0.9903535512972134</v>
@@ -2166,13 +2175,13 @@
         <v>0.8377025536608127</v>
       </c>
       <c r="C54">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D54">
-        <v>0.9087108543630283</v>
+        <v>0.9087761194029851</v>
       </c>
       <c r="E54">
-        <v>0.8708385962730714</v>
+        <v>0.8708564230188675</v>
       </c>
       <c r="F54">
         <v>0.9767649687220733</v>
@@ -2189,13 +2198,13 @@
         <v>0.82226181386273</v>
       </c>
       <c r="C55">
-        <v>0.8435438265786994</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="D55">
-        <v>0.9103070842201276</v>
+        <v>0.9103283582089552</v>
       </c>
       <c r="E55">
-        <v>0.8583398172769411</v>
+        <v>0.8583466646546194</v>
       </c>
       <c r="F55">
         <v>0.9647296811269164</v>
@@ -2212,13 +2221,13 @@
         <v>0.8279460422499363</v>
       </c>
       <c r="C56">
-        <v>0.8576814326107447</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="D56">
-        <v>0.9248251748251747</v>
+        <v>0.9248955223880596</v>
       </c>
       <c r="E56">
-        <v>0.8697288348188318</v>
+        <v>0.8697375142692648</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2235,13 +2244,13 @@
         <v>0.8464409943157716</v>
       </c>
       <c r="C57">
-        <v>0.8934967012252591</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="D57">
-        <v>0.9518850714502889</v>
+        <v>0.9518805970149253</v>
       </c>
       <c r="E57">
-        <v>0.8967659230502932</v>
+        <v>0.8967624853820961</v>
       </c>
       <c r="F57">
         <v>0.9818881721848689</v>
@@ -2258,13 +2267,13 @@
         <v>0.8417748366844828</v>
       </c>
       <c r="C58">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="D58">
-        <v>0.9535573122529644</v>
+        <v>0.9535522388059701</v>
       </c>
       <c r="E58">
-        <v>0.8919989409280781</v>
+        <v>0.8919945557519589</v>
       </c>
       <c r="F58">
         <v>0.9823829021329928</v>
@@ -2281,13 +2290,13 @@
         <v>0.8451684058708746</v>
       </c>
       <c r="C59">
-        <v>0.8925541941564561</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="D59">
-        <v>0.9683794466403162</v>
+        <v>0.9684776119402986</v>
       </c>
       <c r="E59">
-        <v>0.9014653594590323</v>
+        <v>0.9014804309180366</v>
       </c>
       <c r="F59">
         <v>0.9863752942857905</v>
@@ -2304,13 +2313,13 @@
         <v>0.8451684058708746</v>
       </c>
       <c r="C60">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="D60">
-        <v>0.9633627242322895</v>
+        <v>0.9634626865671641</v>
       </c>
       <c r="E60">
-        <v>0.8960775130719236</v>
+        <v>0.8960924277183584</v>
       </c>
       <c r="F60">
         <v>0.9822462624330348</v>
@@ -2327,13 +2336,13 @@
         <v>0.8591668787647407</v>
       </c>
       <c r="C61">
-        <v>0.8982092365692743</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="D61">
-        <v>0.9886743691091516</v>
+        <v>0.9887761194029849</v>
       </c>
       <c r="E61">
-        <v>0.9147883286538925</v>
+        <v>0.9148151577441022</v>
       </c>
       <c r="F61">
         <v>0.9912911823417532</v>
@@ -2350,13 +2359,13 @@
         <v>0.8747772970221429</v>
       </c>
       <c r="C62">
-        <v>0.9095193213949105</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="D62">
-        <v>0.997187595013682</v>
+        <v>0.9972537313432837</v>
       </c>
       <c r="E62">
-        <v>0.9266375634023643</v>
+        <v>0.9266533897184615</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2373,13 +2382,13 @@
         <v>0.874353100873844</v>
       </c>
       <c r="C63">
-        <v>0.9142318567389255</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="D63">
-        <v>0.979477044694436</v>
+        <v>0.9795820895522388</v>
       </c>
       <c r="E63">
-        <v>0.9222039917701162</v>
+        <v>0.922227870498292</v>
       </c>
       <c r="F63">
         <v>0.9962290583954103</v>
@@ -2396,13 +2405,13 @@
         <v>0.8703656570798337</v>
       </c>
       <c r="C64">
-        <v>0.9085768143261075</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="D64">
-        <v>0.9690635451505015</v>
+        <v>0.9690746268656716</v>
       </c>
       <c r="E64">
-        <v>0.9155456420344246</v>
+        <v>0.9155483376746819</v>
       </c>
       <c r="F64">
         <v>0.9970112028848254</v>
@@ -2419,13 +2428,13 @@
         <v>0.8712988886060913</v>
       </c>
       <c r="C65">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D65">
-        <v>0.9863940407418669</v>
+        <v>0.9863880597014925</v>
       </c>
       <c r="E65">
-        <v>0.9200268676349777</v>
+        <v>0.9200083206357481</v>
       </c>
       <c r="F65">
         <v>0.9983728881706143</v>
@@ -2442,13 +2451,13 @@
         <v>0.866547891745143</v>
       </c>
       <c r="C66">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="D66">
-        <v>0.9756764974156279</v>
+        <v>0.9757611940298507</v>
       </c>
       <c r="E66">
-        <v>0.9105203567467264</v>
+        <v>0.9105410582332756</v>
       </c>
       <c r="F66">
         <v>0.9949945893819959</v>
@@ -2465,13 +2474,13 @@
         <v>0.8546703995927717</v>
       </c>
       <c r="C67">
-        <v>0.8633364750235627</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="D67">
-        <v>0.9427637579811492</v>
+        <v>0.9428059701492537</v>
       </c>
       <c r="E67">
-        <v>0.8866010127530974</v>
+        <v>0.8866109821064876</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2488,13 +2497,13 @@
         <v>0.8576397726308643</v>
       </c>
       <c r="C68">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D68">
-        <v>0.9540893888719976</v>
+        <v>0.9541492537313433</v>
       </c>
       <c r="E68">
-        <v>0.8925921671108488</v>
+        <v>0.8926082117970433</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2511,13 +2520,13 @@
         <v>0.8657843386782047</v>
       </c>
       <c r="C69">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D69">
-        <v>0.9620705381574948</v>
+        <v>0.9621492537313432</v>
       </c>
       <c r="E69">
-        <v>0.9101251648066535</v>
+        <v>0.9101345676901174</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2534,13 +2543,13 @@
         <v>0.8587426826164418</v>
       </c>
       <c r="C70">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D70">
-        <v>0.9607783520826999</v>
+        <v>0.9608358208955223</v>
       </c>
       <c r="E70">
-        <v>0.9073045803409717</v>
+        <v>0.9073069717932971</v>
       </c>
       <c r="F70">
         <v>0.9857627714928752</v>
@@ -2557,13 +2566,13 @@
         <v>0.8610333418172562</v>
       </c>
       <c r="C71">
-        <v>0.9029217719132893</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="D71">
-        <v>0.9591821222256005</v>
+        <v>0.9592835820895522</v>
       </c>
       <c r="E71">
-        <v>0.9072456212837008</v>
+        <v>0.9072675671298216</v>
       </c>
       <c r="F71">
         <v>0.9956777878817863</v>
@@ -2580,13 +2589,13 @@
         <v>0.8903877152795453</v>
       </c>
       <c r="C72">
-        <v>0.9557021677662583</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="D72">
-        <v>0.9800091213134691</v>
+        <v>0.9800597014925373</v>
       </c>
       <c r="E72">
-        <v>0.9415165485913555</v>
+        <v>0.9415252033671897</v>
       </c>
       <c r="F72">
         <v>1.009132871899496</v>
@@ -2603,13 +2612,13 @@
         <v>0.88427929074404</v>
       </c>
       <c r="C73">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="D73">
-        <v>0.9905746427485557</v>
+        <v>0.9905671641791045</v>
       </c>
       <c r="E73">
-        <v>0.9413711696593372</v>
+        <v>0.9413654524503881</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2626,13 +2635,13 @@
         <v>0.8814795961652667</v>
       </c>
       <c r="C74">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="D74">
-        <v>1.005624809972636</v>
+        <v>1.005731343283582</v>
       </c>
       <c r="E74">
-        <v>0.9453858286865008</v>
+        <v>0.9454177353980828</v>
       </c>
       <c r="F74">
         <v>1.008347586267553</v>
@@ -2649,13 +2658,13 @@
         <v>0.8981080851785865</v>
       </c>
       <c r="C75">
-        <v>0.9528746465598491</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="D75">
-        <v>1.006232897537245</v>
+        <v>1.006328358208955</v>
       </c>
       <c r="E75">
-        <v>0.9518622385127606</v>
+        <v>0.9518804165595494</v>
       </c>
       <c r="F75">
         <v>1.012306996423809</v>
@@ -2672,13 +2681,13 @@
         <v>0.8931025706286586</v>
       </c>
       <c r="C76">
-        <v>0.9641847313854853</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="D76">
-        <v>1.04317421708726</v>
+        <v>1.043223880597015</v>
       </c>
       <c r="E76">
-        <v>0.9660833270097501</v>
+        <v>0.9660871418271773</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2695,13 +2704,13 @@
         <v>0.8907270721981845</v>
       </c>
       <c r="C77">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D77">
-        <v>1.039525691699605</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="E77">
-        <v>0.9609613708384124</v>
+        <v>0.9609572813009088</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2718,13 +2727,13 @@
         <v>0.890896750657504</v>
       </c>
       <c r="C78">
-        <v>0.945334590009425</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="D78">
-        <v>1.063849194283977</v>
+        <v>1.063880597014925</v>
       </c>
       <c r="E78">
-        <v>0.9659355440403741</v>
+        <v>0.9659320830773219</v>
       </c>
       <c r="F78">
         <v>1.012434212696184</v>
@@ -2741,13 +2750,13 @@
         <v>0.8874183422414524</v>
       </c>
       <c r="C79">
-        <v>0.9679547596606973</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="D79">
-        <v>1.072058376406203</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="E79">
-        <v>0.9749265712641708</v>
+        <v>0.9749343858391015</v>
       </c>
       <c r="F79">
         <v>1.019259915409032</v>
@@ -2764,13 +2773,13 @@
         <v>0.8881818953083905</v>
       </c>
       <c r="C80">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="D80">
-        <v>1.072058376406203</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="E80">
-        <v>0.9742530973088148</v>
+        <v>0.9742556245921281</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2787,13 +2796,13 @@
         <v>0.8793586154237719</v>
       </c>
       <c r="C81">
-        <v>0.9839773798303488</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="D81">
-        <v>1.076695044086349</v>
+        <v>1.076776119402985</v>
       </c>
       <c r="E81">
-        <v>0.9790038291365926</v>
+        <v>0.9790142222268414</v>
       </c>
       <c r="F81">
         <v>1.018626975189686</v>
@@ -2810,13 +2819,13 @@
         <v>0.866038856367184</v>
       </c>
       <c r="C82">
-        <v>0.9764373232799246</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="D82">
-        <v>1.045454545454545</v>
+        <v>1.045492537313433</v>
       </c>
       <c r="E82">
-        <v>0.9616775278472176</v>
+        <v>0.9616732035070201</v>
       </c>
       <c r="F82">
         <v>1.01919866312974</v>
@@ -2833,13 +2842,13 @@
         <v>0.8410112836175446</v>
       </c>
       <c r="C83">
-        <v>0.9500471253534402</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="D83">
-        <v>1.010185466707206</v>
+        <v>1.010268656716418</v>
       </c>
       <c r="E83">
-        <v>0.9328205918099783</v>
+        <v>0.9328294332465252</v>
       </c>
       <c r="F83">
         <v>1.012145227583629</v>
@@ -2856,13 +2865,13 @@
         <v>0.8298125053024518</v>
       </c>
       <c r="C84">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D84">
-        <v>1.018546670720584</v>
+        <v>1.018626865671642</v>
       </c>
       <c r="E84">
-        <v>0.9333273411707864</v>
+        <v>0.9333508061683</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2879,13 +2888,13 @@
         <v>0.8307457368287096</v>
       </c>
       <c r="C85">
-        <v>0.9387370405278039</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="D85">
-        <v>1.035725144420797</v>
+        <v>1.035820895522388</v>
       </c>
       <c r="E85">
-        <v>0.9340260715547994</v>
+        <v>0.9340587076501331</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2902,13 +2911,13 @@
         <v>0.8356664121489776</v>
       </c>
       <c r="C86">
-        <v>0.942507068803016</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="D86">
-        <v>1.058224384311341</v>
+        <v>1.058268656716418</v>
       </c>
       <c r="E86">
-        <v>0.9443679596583903</v>
+        <v>0.9443634583961832</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2925,13 +2934,13 @@
         <v>0.8341393060151013</v>
       </c>
       <c r="C87">
-        <v>0.9236569274269556</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="D87">
-        <v>1.063165095773791</v>
+        <v>1.063164179104477</v>
       </c>
       <c r="E87">
-        <v>0.939258631701381</v>
+        <v>0.9392583676535373</v>
       </c>
       <c r="F87">
         <v>1.011295548529867</v>
@@ -2948,13 +2957,13 @@
         <v>0.8482226181386273</v>
       </c>
       <c r="C88">
-        <v>0.9519321394910462</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="D88">
-        <v>1.069550015202189</v>
+        <v>1.069611940298508</v>
       </c>
       <c r="E88">
-        <v>0.955484801215901</v>
+        <v>0.9554969498697331</v>
       </c>
       <c r="F88">
         <v>1.024923395386604</v>
@@ -2971,13 +2980,13 @@
         <v>0.8617968948841944</v>
       </c>
       <c r="C89">
-        <v>0.9924599434495758</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="D89">
-        <v>1.095317725752508</v>
+        <v>1.095402985074627</v>
       </c>
       <c r="E89">
-        <v>0.9819775750973139</v>
+        <v>0.9820052107842238</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2994,13 +3003,13 @@
         <v>0.8630694833290914</v>
       </c>
       <c r="C90">
-        <v>0.9934024505183789</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="D90">
-        <v>1.088096685922773</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="E90">
-        <v>0.9803383393574712</v>
+        <v>0.9803402987517188</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -3017,13 +3026,13 @@
         <v>0.8720624416730296</v>
       </c>
       <c r="C91">
-        <v>1.026390197926484</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="D91">
-        <v>1.078139252052296</v>
+        <v>1.07820895522388</v>
       </c>
       <c r="E91">
-        <v>0.9909959486618276</v>
+        <v>0.9910003009889276</v>
       </c>
       <c r="F91">
         <v>1.034125372421711</v>
@@ -3040,13 +3049,13 @@
         <v>0.8783405446678545</v>
       </c>
       <c r="C92">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D92">
-        <v>1.090148981453329</v>
+        <v>1.090149253731343</v>
       </c>
       <c r="E92">
-        <v>0.9989598783786391</v>
+        <v>0.9989518930940955</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3063,13 +3072,13 @@
         <v>0.868584033256978</v>
       </c>
       <c r="C93">
-        <v>1.027332704995288</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="D93">
-        <v>1.095165703861356</v>
+        <v>1.095164179104477</v>
       </c>
       <c r="E93">
-        <v>0.995743046230065</v>
+        <v>0.9957392553262348</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3086,13 +3095,13 @@
         <v>0.8836005769067617</v>
       </c>
       <c r="C94">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="D94">
-        <v>1.092201276983886</v>
+        <v>1.092298507462687</v>
       </c>
       <c r="E94">
-        <v>1.000181437534131</v>
+        <v>1.000205198511153</v>
       </c>
       <c r="F94">
         <v>1.027800681942043</v>
@@ -3109,13 +3118,13 @@
         <v>0.9043013489437516</v>
       </c>
       <c r="C95">
-        <v>1.037700282752121</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="D95">
-        <v>1.118121009425357</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="E95">
-        <v>1.018883485059443</v>
+        <v>1.018894607287517</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3132,13 +3141,13 @@
         <v>0.8938661236955968</v>
       </c>
       <c r="C96">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D96">
-        <v>1.114548494983277</v>
+        <v>1.114626865671642</v>
       </c>
       <c r="E96">
-        <v>1.012290414712954</v>
+        <v>1.012308201903826</v>
       </c>
       <c r="F96">
         <v>1.041007615700059</v>
@@ -3155,13 +3164,13 @@
         <v>0.9163485195554424</v>
       </c>
       <c r="C97">
-        <v>1.036757775683318</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="D97">
-        <v>1.134691395560961</v>
+        <v>1.134686567164179</v>
       </c>
       <c r="E97">
-        <v>1.028136723159462</v>
+        <v>1.028122267250008</v>
       </c>
       <c r="F97">
         <v>1.049991283329486</v>
@@ -3178,13 +3187,13 @@
         <v>0.9138881818953083</v>
       </c>
       <c r="C98">
-        <v>1.079170593779453</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="D98">
-        <v>1.110671936758893</v>
+        <v>1.110686567164179</v>
       </c>
       <c r="E98">
-        <v>1.033370016922059</v>
+        <v>1.033359694462006</v>
       </c>
       <c r="F98">
         <v>1.047283618470546</v>
@@ -3201,13 +3210,13 @@
         <v>0.9236446933061847</v>
       </c>
       <c r="C99">
-        <v>1.130065975494816</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="D99">
-        <v>1.122301611432046</v>
+        <v>1.122388059701492</v>
       </c>
       <c r="E99">
-        <v>1.057320499409967</v>
+        <v>1.057347450764657</v>
       </c>
       <c r="F99">
         <v>1.0568358328975</v>
@@ -3224,13 +3233,13 @@
         <v>0.9302621532196488</v>
       </c>
       <c r="C100">
-        <v>1.116870876531574</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="D100">
-        <v>1.145104895104895</v>
+        <v>1.145194029850746</v>
       </c>
       <c r="E100">
-        <v>1.062741136734715</v>
+        <v>1.062757900153995</v>
       </c>
       <c r="F100">
         <v>1.058527338148705</v>
@@ -3247,13 +3256,13 @@
         <v>0.9138033426656484</v>
       </c>
       <c r="C101">
-        <v>1.111215834118756</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="D101">
-        <v>1.121389480085132</v>
+        <v>1.121432835820896</v>
       </c>
       <c r="E101">
-        <v>1.047452890193604</v>
+        <v>1.047464371288705</v>
       </c>
       <c r="F101">
         <v>1.049366195966459</v>
@@ -3270,13 +3279,13 @@
         <v>0.9190633749045557</v>
       </c>
       <c r="C102">
-        <v>1.106503298774741</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="D102">
-        <v>1.111051991486774</v>
+        <v>1.111164179104478</v>
       </c>
       <c r="E102">
-        <v>1.044274793253849</v>
+        <v>1.044293376939833</v>
       </c>
       <c r="F102">
         <v>1.047214513334935</v>
@@ -3293,13 +3302,13 @@
         <v>0.9246627640621023</v>
       </c>
       <c r="C103">
-        <v>1.133836003770028</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="D103">
-        <v>1.123517786561265</v>
+        <v>1.123582089552239</v>
       </c>
       <c r="E103">
-        <v>1.059312090590442</v>
+        <v>1.05933198394793</v>
       </c>
       <c r="F103">
         <v>1.051192770346358</v>
@@ -3316,13 +3325,13 @@
         <v>0.9384915584966489</v>
       </c>
       <c r="C104">
-        <v>1.113100848256362</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="D104">
-        <v>1.125038005472788</v>
+        <v>1.125134328358209</v>
       </c>
       <c r="E104">
-        <v>1.05767295161948</v>
+        <v>1.057691837180123</v>
       </c>
       <c r="F104">
         <v>1.055659475020849</v>
@@ -3339,13 +3348,13 @@
         <v>0.9352676677695766</v>
       </c>
       <c r="C105">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="D105">
-        <v>1.114320462146549</v>
+        <v>1.114388059701493</v>
       </c>
       <c r="E105">
-        <v>1.050551820812977</v>
+        <v>1.050560727125172</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3362,13 +3371,13 @@
         <v>0.9382370408076695</v>
       </c>
       <c r="C106">
-        <v>1.103675777568332</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="D106">
-        <v>1.118805107935543</v>
+        <v>1.118805970149254</v>
       </c>
       <c r="E106">
-        <v>1.052419286090886</v>
+        <v>1.052416244434321</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3385,13 +3394,13 @@
         <v>0.944939339950793</v>
       </c>
       <c r="C107">
-        <v>1.141376060320452</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="D107">
-        <v>1.12777439951353</v>
+        <v>1.127880597014925</v>
       </c>
       <c r="E107">
-        <v>1.070099027328484</v>
+        <v>1.070112846431415</v>
       </c>
       <c r="F107">
         <v>1.062591976579641</v>
@@ -3408,13 +3417,13 @@
         <v>0.9328073301094425</v>
       </c>
       <c r="C108">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="D108">
-        <v>1.119109151717847</v>
+        <v>1.119164179104478</v>
       </c>
       <c r="E108">
-        <v>1.066846940202309</v>
+        <v>1.066844623001452</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3431,13 +3440,13 @@
         <v>0.9378976838890302</v>
       </c>
       <c r="C109">
-        <v>1.144203581526861</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="D109">
-        <v>1.10717543326239</v>
+        <v>1.107223880597015</v>
       </c>
       <c r="E109">
-        <v>1.061840287402723</v>
+        <v>1.061840336242238</v>
       </c>
       <c r="F109">
         <v>1.046575290830534</v>
@@ -3454,13 +3463,13 @@
         <v>0.9149910918808857</v>
       </c>
       <c r="C110">
-        <v>1.076343072573044</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="D110">
-        <v>1.0669656430526</v>
+        <v>1.066985074626866</v>
       </c>
       <c r="E110">
-        <v>1.018388847395964</v>
+        <v>1.018374822030056</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3477,13 +3486,13 @@
         <v>0.9480783914482055</v>
       </c>
       <c r="C111">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="D111">
-        <v>1.080115536637276</v>
+        <v>1.080119402985074</v>
       </c>
       <c r="E111">
-        <v>1.04361984144565</v>
+        <v>1.043607716459488</v>
       </c>
       <c r="F111">
         <v>1.03911664789834</v>
@@ -3500,13 +3509,13 @@
         <v>0.9597013659115975</v>
       </c>
       <c r="C112">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="D112">
-        <v>1.098738218303436</v>
+        <v>1.098746268656716</v>
       </c>
       <c r="E112">
-        <v>1.069268504348286</v>
+        <v>1.069250684726424</v>
       </c>
       <c r="F112">
         <v>1.045648653784841</v>
@@ -3523,13 +3532,13 @@
         <v>0.9720030542122676</v>
       </c>
       <c r="C113">
-        <v>1.157398680490104</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="D113">
-        <v>1.118121009425357</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="E113">
-        <v>1.081402536104273</v>
+        <v>1.081426693909498</v>
       </c>
       <c r="F113">
         <v>1.053410416970965</v>
@@ -3546,13 +3555,13 @@
         <v>0.9682701281072367</v>
       </c>
       <c r="C114">
-        <v>1.161168708765316</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="D114">
-        <v>1.145332927941624</v>
+        <v>1.145432835820896</v>
       </c>
       <c r="E114">
-        <v>1.09035738366975</v>
+        <v>1.090385738906317</v>
       </c>
       <c r="F114">
         <v>1.058532049862497</v>
@@ -3569,13 +3578,13 @@
         <v>0.9934673793161958</v>
       </c>
       <c r="C115">
-        <v>1.190386427898209</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="D115">
-        <v>1.138948008513226</v>
+        <v>1.138985074626866</v>
       </c>
       <c r="E115">
-        <v>1.10645927298328</v>
+        <v>1.106453528009282</v>
       </c>
       <c r="F115">
         <v>1.066410035322148</v>
@@ -3592,13 +3601,13 @@
         <v>0.9927038262492576</v>
       </c>
       <c r="C116">
-        <v>1.175306314797361</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="D116">
-        <v>1.120477348738218</v>
+        <v>1.120477611940299</v>
       </c>
       <c r="E116">
-        <v>1.095127909891489</v>
+        <v>1.095109020177898</v>
       </c>
       <c r="F116">
         <v>1.060900471328436</v>
@@ -3615,13 +3624,13 @@
         <v>0.9949096462204123</v>
       </c>
       <c r="C117">
-        <v>1.193213949104618</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="D117">
-        <v>1.152858011553664</v>
+        <v>1.152955223880597</v>
       </c>
       <c r="E117">
-        <v>1.112473026732173</v>
+        <v>1.11249241730018</v>
       </c>
       <c r="F117">
         <v>1.070094595507224</v>
@@ -3635,22 +3644,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.9949096462204123</v>
+        <v>1.012641045219309</v>
       </c>
       <c r="C118">
-        <v>1.193213949104618</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="D118">
-        <v>1.152858011553664</v>
+        <v>1.168477611940298</v>
       </c>
       <c r="E118">
-        <v>1.112473026732173</v>
+        <v>1.133292365237841</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9986425723254433</v>
+      </c>
+      <c r="C119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="D119">
+        <v>1.166686567164179</v>
+      </c>
+      <c r="E119">
+        <v>1.129186198953322</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.017985916687876</v>
+      </c>
+      <c r="C120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="D120">
+        <v>1.170149253731343</v>
+      </c>
+      <c r="E120">
+        <v>1.14622811750388</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.00407228302367</v>
+      </c>
+      <c r="C121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="D121">
+        <v>1.189373134328358</v>
+      </c>
+      <c r="E121">
+        <v>1.143496304856956</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9787901925850512</v>
+      </c>
+      <c r="C122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="D122">
+        <v>1.13134328358209</v>
+      </c>
+      <c r="E122">
+        <v>1.113873804782092</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D123">
+        <v>1.134208955223881</v>
+      </c>
+      <c r="E123">
+        <v>1.131373705177519</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9915160770340206</v>
+      </c>
+      <c r="C124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D124">
+        <v>1.081910447761194</v>
+      </c>
+      <c r="E124">
+        <v>1.111230663906399</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9995758038517009</v>
+      </c>
+      <c r="C125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="D125">
+        <v>1.117970149253731</v>
+      </c>
+      <c r="E125">
+        <v>1.148575129461993</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.012641045219309</v>
+      </c>
+      <c r="C126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="D126">
+        <v>1.08644776119403</v>
+      </c>
+      <c r="E126">
+        <v>1.149142709830634</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9981335369474845</v>
+      </c>
+      <c r="C127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="D127">
+        <v>1.084179104477612</v>
+      </c>
+      <c r="E127">
+        <v>1.149989286665151</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3762,18 +3978,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3805,131 +4021,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>0.34</v>
       </c>
       <c r="J2">
-        <v>36.49</v>
+        <v>4.694399833679199</v>
       </c>
       <c r="K2">
-        <v>4.69</v>
+        <v>36.40560150146484</v>
       </c>
       <c r="L2">
-        <v>12.7</v>
-      </c>
-      <c r="M2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>6.4975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>0.33</v>
       </c>
       <c r="J3">
-        <v>141.9</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K3">
-        <v>9.640000000000001</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L3">
-        <v>12.41</v>
-      </c>
-      <c r="M3">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>31.9832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>53.46</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K4">
-        <v>12.86</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L4">
-        <v>35.09</v>
-      </c>
-      <c r="M4">
-        <v>77.62</v>
+        <v>77.6234</v>
       </c>
     </row>
   </sheetData>
@@ -3947,19 +4151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3967,19 +4171,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3987,19 +4191,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4007,19 +4211,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4027,19 +4231,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4047,19 +4251,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4067,19 +4271,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4087,19 +4291,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4107,19 +4311,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4127,19 +4331,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4147,19 +4351,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4167,19 +4371,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4187,19 +4391,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4207,19 +4411,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4227,19 +4431,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4247,19 +4451,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4267,19 +4471,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4287,19 +4491,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4307,19 +4511,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4327,19 +4531,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4347,19 +4551,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +4573,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4377,131 +4581,142 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
